--- a/data/trans_orig/CONS_CAT-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_CAT-Estudios-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el catarro en País Vasco</t>
+          <t>Consumo de medicamentos para el catarro en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2156,7 +2156,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el catarro en Andalucia</t>
+          <t>Consumo de medicamentos para el catarro en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el catarro en C.Valenciana</t>
+          <t>Consumo de medicamentos para el catarro en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_CAT-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_CAT-Estudios-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2619</t>
+          <t>3207</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1541</t>
+          <t>1856</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>4868</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5726</t>
+          <t>7685</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4081</t>
+          <t>5533</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8084</t>
+          <t>10333</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>8345</t>
+          <t>10893</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>8251</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>11006</t>
+          <t>13915</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>6,82%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>85445</t>
+          <t>79335</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>83612</t>
+          <t>77674</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>86523</t>
+          <t>80686</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,03%</t>
+          <t>96,11%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,94%</t>
+          <t>94,1%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,25%</t>
+          <t>97,75%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>122018</t>
+          <t>113767</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>119660</t>
+          <t>111119</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>123663</t>
+          <t>115919</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>93,67%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>93,67%</t>
+          <t>91,49%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>96,81%</t>
+          <t>95,44%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>207464</t>
+          <t>193101</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>204803</t>
+          <t>190079</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>209501</t>
+          <t>195743</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>96,13%</t>
+          <t>94,66%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>94,9%</t>
+          <t>93,18%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,08%</t>
+          <t>95,96%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8930</t>
+          <t>9626</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6498</t>
+          <t>7374</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11748</t>
+          <t>12584</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11023</t>
+          <t>12373</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8563</t>
+          <t>9456</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14384</t>
+          <t>15719</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>19953</t>
+          <t>21999</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>16264</t>
+          <t>18468</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>24360</t>
+          <t>26397</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>2,91%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>444561</t>
+          <t>452053</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>441743</t>
+          <t>449095</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>446993</t>
+          <t>454305</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,03%</t>
+          <t>97,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,41%</t>
+          <t>97,27%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,57%</t>
+          <t>98,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>420779</t>
+          <t>431984</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>417418</t>
+          <t>428638</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>423239</t>
+          <t>434901</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>97,22%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,67%</t>
+          <t>96,46%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,02%</t>
+          <t>97,87%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>865340</t>
+          <t>884036</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>860933</t>
+          <t>879638</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>869029</t>
+          <t>887567</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>97,75%</t>
+          <t>97,57%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>97,25%</t>
+          <t>97,09%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,16%</t>
+          <t>97,96%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1842</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>970</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3591</t>
+          <t>3557</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2351</t>
+          <t>4097</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1470</t>
+          <t>2501</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3896</t>
+          <t>6544</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>4193</t>
+          <t>6078</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>2792</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>6197</t>
+          <t>9074</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>2,25%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>149783</t>
+          <t>173580</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>148034</t>
+          <t>172004</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>150706</t>
+          <t>174591</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,79%</t>
+          <t>98,87%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,63%</t>
+          <t>97,97%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,39%</t>
+          <t>99,45%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>191886</t>
+          <t>223897</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>190341</t>
+          <t>221450</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>192767</t>
+          <t>225493</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,79%</t>
+          <t>98,2%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>97,99%</t>
+          <t>97,13%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,24%</t>
+          <t>98,9%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>341670</t>
+          <t>397477</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>339666</t>
+          <t>394481</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>343071</t>
+          <t>399335</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,79%</t>
+          <t>98,49%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>98,21%</t>
+          <t>97,75%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,19%</t>
+          <t>98,95%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13390</t>
+          <t>14814</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10654</t>
+          <t>11506</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16808</t>
+          <t>18696</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19100</t>
+          <t>24155</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16004</t>
+          <t>19946</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>23144</t>
+          <t>28619</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>32490</t>
+          <t>38969</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>28170</t>
+          <t>33796</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>37122</t>
+          <t>45183</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,99%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>679791</t>
+          <t>704967</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>676373</t>
+          <t>701085</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>682527</t>
+          <t>708275</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,07%</t>
+          <t>97,94%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,58%</t>
+          <t>97,4%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,46%</t>
+          <t>98,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>734684</t>
+          <t>769648</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>730640</t>
+          <t>765184</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>737780</t>
+          <t>773857</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>96,96%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>96,39%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,88%</t>
+          <t>97,49%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1414475</t>
+          <t>1474615</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1409843</t>
+          <t>1468401</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1418795</t>
+          <t>1479788</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>97,75%</t>
+          <t>97,43%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>97,43%</t>
+          <t>97,01%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,05%</t>
+          <t>97,77%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2351,12 +2351,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15905</t>
+          <t>16132</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>36453</t>
+          <t>35375</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -2366,12 +2366,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -2386,12 +2386,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>30134</t>
+          <t>29814</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>46687</t>
+          <t>47957</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -2401,12 +2401,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>50720</t>
+          <t>50243</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>77664</t>
+          <t>78406</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -2436,12 +2436,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>12,58%</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>191844</t>
+          <t>192922</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>212392</t>
+          <t>212165</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>84,03%</t>
+          <t>84,5%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>93,03%</t>
+          <t>92,93%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>348073</t>
+          <t>346803</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>364626</t>
+          <t>364946</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -2514,12 +2514,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>88,17%</t>
+          <t>87,85%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>92,37%</t>
+          <t>92,45%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>545393</t>
+          <t>544651</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>572337</t>
+          <t>572814</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -2549,12 +2549,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>87,53%</t>
+          <t>87,42%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>91,86%</t>
+          <t>91,94%</t>
         </is>
       </c>
     </row>
@@ -2694,12 +2694,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41470</t>
+          <t>46137</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>104892</t>
+          <t>103291</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>59604</t>
+          <t>54817</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>123302</t>
+          <t>121489</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -2764,12 +2764,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>123848</t>
+          <t>121411</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>212995</t>
+          <t>212515</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -2779,12 +2779,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>7,6%</t>
         </is>
       </c>
     </row>
@@ -2807,12 +2807,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1304501</t>
+          <t>1306102</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1367923</t>
+          <t>1363256</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -2822,12 +2822,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>92,67%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,06%</t>
+          <t>96,73%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -2842,12 +2842,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1261728</t>
+          <t>1263541</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1325426</t>
+          <t>1330213</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,1%</t>
+          <t>91,23%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,7%</t>
+          <t>96,04%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -2877,12 +2877,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2581428</t>
+          <t>2581908</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2670575</t>
+          <t>2673012</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -2892,12 +2892,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>92,38%</t>
+          <t>92,4%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,57%</t>
+          <t>95,66%</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29020</t>
+          <t>29637</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>58980</t>
+          <t>63344</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3052,12 +3052,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,83%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>23783</t>
+          <t>23064</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>42934</t>
+          <t>41509</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -3107,12 +3107,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>57662</t>
+          <t>58635</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>93542</t>
+          <t>94054</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -3122,12 +3122,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>10,41%</t>
         </is>
       </c>
     </row>
@@ -3150,12 +3150,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>400821</t>
+          <t>396457</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>430781</t>
+          <t>430164</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3165,12 +3165,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,17%</t>
+          <t>86,22%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>93,69%</t>
+          <t>93,55%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -3185,12 +3185,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>400440</t>
+          <t>401865</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>419591</t>
+          <t>420310</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3200,12 +3200,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,32%</t>
+          <t>90,64%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>94,64%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -3220,12 +3220,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>809633</t>
+          <t>809121</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>845513</t>
+          <t>844540</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>89,64%</t>
+          <t>89,59%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>93,62%</t>
+          <t>93,51%</t>
         </is>
       </c>
     </row>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>97744</t>
+          <t>92153</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>178756</t>
+          <t>177049</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -3395,12 +3395,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -3415,12 +3415,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>122230</t>
+          <t>118792</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>194767</t>
+          <t>192314</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -3430,12 +3430,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -3450,12 +3450,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>242706</t>
+          <t>251671</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>361616</t>
+          <t>362232</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>8,38%</t>
         </is>
       </c>
     </row>
@@ -3493,12 +3493,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1918735</t>
+          <t>1920442</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1999747</t>
+          <t>2005338</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -3508,12 +3508,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,48%</t>
+          <t>91,56%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,34%</t>
+          <t>95,61%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -3528,12 +3528,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2028397</t>
+          <t>2030850</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2100934</t>
+          <t>2104372</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,24%</t>
+          <t>91,35%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,5%</t>
+          <t>94,66%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -3563,12 +3563,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>3959039</t>
+          <t>3958423</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4077949</t>
+          <t>4068984</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -3578,12 +3578,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>91,63%</t>
+          <t>91,62%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,38%</t>
+          <t>94,18%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_CAT-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_CAT-Estudios-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el catarro en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos para el catarro en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3207</t>
+          <t>24186</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1856</t>
+          <t>16295</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4868</t>
+          <t>34731</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7685</t>
+          <t>42637</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5533</t>
+          <t>33429</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>10333</t>
+          <t>53942</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>97</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>10893</t>
+          <t>66823</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>8251</t>
+          <t>54091</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>13915</t>
+          <t>81720</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>11,88%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>263</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79335</t>
+          <t>231206</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>77674</t>
+          <t>220661</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>80686</t>
+          <t>239097</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,11%</t>
+          <t>90,53%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,1%</t>
+          <t>86,4%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,75%</t>
+          <t>93,62%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>624</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>113767</t>
+          <t>389629</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>111119</t>
+          <t>378324</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>115919</t>
+          <t>398837</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>93,67%</t>
+          <t>90,14%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>91,49%</t>
+          <t>87,52%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>95,44%</t>
+          <t>92,27%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>887</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>193101</t>
+          <t>620835</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>190079</t>
+          <t>605938</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>195743</t>
+          <t>633567</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>94,66%</t>
+          <t>90,28%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>93,18%</t>
+          <t>88,12%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>95,96%</t>
+          <t>92,13%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>694</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432266</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432266</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432266</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>984</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687658</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687658</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687658</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9626</t>
+          <t>89867</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7374</t>
+          <t>70424</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12584</t>
+          <t>113231</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>137</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12373</t>
+          <t>106015</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9456</t>
+          <t>87864</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15719</t>
+          <t>126094</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>215</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>21999</t>
+          <t>195882</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>18468</t>
+          <t>168392</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>26397</t>
+          <t>226009</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>8,84%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2592</t>
+          <t>1033</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>452053</t>
+          <t>1197820</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>449095</t>
+          <t>1174456</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>454305</t>
+          <t>1217263</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,92%</t>
+          <t>93,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,27%</t>
+          <t>91,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,4%</t>
+          <t>94,53%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2436</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>431984</t>
+          <t>1163960</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>428638</t>
+          <t>1143881</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>434901</t>
+          <t>1182111</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>97,22%</t>
+          <t>91,65%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,46%</t>
+          <t>90,07%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>93,08%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>5028</t>
+          <t>2534</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>884036</t>
+          <t>2361780</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>879638</t>
+          <t>2331653</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>887567</t>
+          <t>2389270</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>97,57%</t>
+          <t>92,34%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>97,09%</t>
+          <t>91,16%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,96%</t>
+          <t>93,42%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2647</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>1638</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1269975</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1269975</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1269975</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5150</t>
+          <t>2749</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2557662</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2557662</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2557662</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>46639</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>970</t>
+          <t>32881</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3557</t>
+          <t>67928</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>13,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4097</t>
+          <t>36349</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2501</t>
+          <t>27813</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6544</t>
+          <t>47760</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>87</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>6078</t>
+          <t>82988</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4220</t>
+          <t>66731</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>9074</t>
+          <t>104811</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>10,42%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>451</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>173580</t>
+          <t>463240</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>172004</t>
+          <t>441951</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>174591</t>
+          <t>476998</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,87%</t>
+          <t>90,85%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,97%</t>
+          <t>86,68%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,45%</t>
+          <t>93,55%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1180</t>
+          <t>615</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>223897</t>
+          <t>459557</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>221450</t>
+          <t>448146</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>225493</t>
+          <t>468093</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,2%</t>
+          <t>92,67%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>97,13%</t>
+          <t>90,37%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,9%</t>
+          <t>94,39%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2076</t>
+          <t>1066</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>397477</t>
+          <t>922798</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>394481</t>
+          <t>900975</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>399335</t>
+          <t>939055</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,49%</t>
+          <t>91,75%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,75%</t>
+          <t>89,58%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,95%</t>
+          <t>93,37%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1199</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>2106</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>141</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14814</t>
+          <t>160692</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11506</t>
+          <t>134704</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18696</t>
+          <t>192779</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>258</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24155</t>
+          <t>185001</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19946</t>
+          <t>162499</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>28619</t>
+          <t>211291</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>399</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>38969</t>
+          <t>345693</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>33796</t>
+          <t>313353</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>45183</t>
+          <t>383873</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>9,03%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3972</t>
+          <t>1747</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>704967</t>
+          <t>1892267</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>701085</t>
+          <t>1860180</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>708275</t>
+          <t>1918255</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,94%</t>
+          <t>92,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>90,61%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,4%</t>
+          <t>93,44%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4329</t>
+          <t>2740</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>769648</t>
+          <t>2013147</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>765184</t>
+          <t>1986857</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>773857</t>
+          <t>2035649</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>96,96%</t>
+          <t>91,58%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>96,39%</t>
+          <t>90,39%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,49%</t>
+          <t>92,61%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>8301</t>
+          <t>4487</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1474615</t>
+          <t>3905413</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1468401</t>
+          <t>3867233</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1479788</t>
+          <t>3937753</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>97,43%</t>
+          <t>91,87%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>97,01%</t>
+          <t>90,97%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,77%</t>
+          <t>92,63%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4057</t>
+          <t>1888</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052959</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052959</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052959</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4457</t>
+          <t>2998</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2198148</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2198148</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2198148</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>8514</t>
+          <t>4886</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4251106</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4251106</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4251106</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2156,7 +2156,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el catarro en Andalucia (tasa de respuesta: 99,86%)</t>
+          <t>Consumo de medicamentos para el catarro en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2341,107 +2341,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>24319</t>
+          <t>7540</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16132</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>35375</t>
+          <t>11890</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>38107</t>
+          <t>9860</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>29814</t>
+          <t>6190</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>47957</t>
+          <t>15386</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>44</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>62426</t>
+          <t>17400</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>50243</t>
+          <t>12303</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>78406</t>
+          <t>23540</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>4,81%</t>
         </is>
       </c>
     </row>
@@ -2454,107 +2454,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>531</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>203978</t>
+          <t>208256</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>192922</t>
+          <t>203906</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>212165</t>
+          <t>211231</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>89,35%</t>
+          <t>96,51%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>84,5%</t>
+          <t>94,49%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>92,93%</t>
+          <t>97,88%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>622</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>356653</t>
+          <t>263821</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>346803</t>
+          <t>258295</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>364946</t>
+          <t>267491</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>90,35%</t>
+          <t>96,4%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>87,85%</t>
+          <t>94,38%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>92,45%</t>
+          <t>97,74%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>887</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>560631</t>
+          <t>472078</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>544651</t>
+          <t>465938</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>572814</t>
+          <t>477175</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>89,98%</t>
+          <t>96,45%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>87,42%</t>
+          <t>95,19%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>91,94%</t>
+          <t>97,49%</t>
         </is>
       </c>
     </row>
@@ -2567,22 +2567,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>553</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -2602,22 +2602,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>644</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>394760</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>394760</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>394760</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -2637,22 +2637,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>984</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>623057</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>623057</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>623057</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -2684,107 +2684,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76989</t>
+          <t>24077</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>46137</t>
+          <t>17522</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>103291</t>
+          <t>33341</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
+          <t>2,03%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3,87%</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>20847</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>15237</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>28409</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2,4%</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1,76%</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
           <t>3,27%</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>7,33%</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>94867</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>54817</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>121489</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>6,85%</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>3,96%</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>8,77%</t>
-        </is>
-      </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>85</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>171855</t>
+          <t>44924</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>121411</t>
+          <t>34849</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>212515</t>
+          <t>57828</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>3,34%</t>
         </is>
       </c>
     </row>
@@ -2797,107 +2797,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>1590</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1332404</t>
+          <t>837941</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1306102</t>
+          <t>828677</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1363256</t>
+          <t>844496</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>97,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,67%</t>
+          <t>96,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>97,97%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1484</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>847333</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>839771</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>852943</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>97,6%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>96,73%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>1501</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>1290163</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>1263541</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>1330213</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>93,15%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>91,23%</t>
-        </is>
-      </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,04%</t>
+          <t>98,24%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2534</t>
+          <t>3074</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>2622568</t>
+          <t>1685274</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2581908</t>
+          <t>1672370</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2673012</t>
+          <t>1695349</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>93,85%</t>
+          <t>97,4%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>92,4%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,66%</t>
+          <t>97,99%</t>
         </is>
       </c>
     </row>
@@ -2910,22 +2910,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -2945,22 +2945,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1638</t>
+          <t>1523</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1385030</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1385030</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1385030</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -2980,22 +2980,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>2749</t>
+          <t>3159</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>2794423</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>2794423</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>2794423</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3027,107 +3027,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>42072</t>
+          <t>11702</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29637</t>
+          <t>7305</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>63344</t>
+          <t>18222</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>31457</t>
+          <t>13450</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>23064</t>
+          <t>8663</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>41509</t>
+          <t>20654</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>44</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>73530</t>
+          <t>25152</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>58635</t>
+          <t>18467</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>94054</t>
+          <t>34722</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>4,37%</t>
         </is>
       </c>
     </row>
@@ -3140,107 +3140,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>633</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>417729</t>
+          <t>366851</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>396457</t>
+          <t>360331</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>430164</t>
+          <t>371248</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,85%</t>
+          <t>96,91%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>86,22%</t>
+          <t>95,19%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>93,55%</t>
+          <t>98,07%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>678</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>411917</t>
+          <t>403425</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>401865</t>
+          <t>396221</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>420310</t>
+          <t>408212</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>92,91%</t>
+          <t>96,77%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,64%</t>
+          <t>95,05%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>94,8%</t>
+          <t>97,92%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1066</t>
+          <t>1311</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>829645</t>
+          <t>770276</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>809121</t>
+          <t>760706</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>844540</t>
+          <t>776961</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>91,86%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>89,59%</t>
+          <t>95,63%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>93,51%</t>
+          <t>97,68%</t>
         </is>
       </c>
     </row>
@@ -3253,22 +3253,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>655</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3288,22 +3288,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>700</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3323,22 +3323,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1355</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -3370,107 +3370,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>143380</t>
+          <t>43318</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>92153</t>
+          <t>34274</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>177049</t>
+          <t>54599</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>164431</t>
+          <t>44158</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>118792</t>
+          <t>35010</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>192314</t>
+          <t>56580</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>173</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>307810</t>
+          <t>87476</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>251671</t>
+          <t>73994</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>362232</t>
+          <t>101953</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>3,38%</t>
         </is>
       </c>
     </row>
@@ -3483,107 +3483,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1747</t>
+          <t>2754</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1954111</t>
+          <t>1413049</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1920442</t>
+          <t>1401768</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2005338</t>
+          <t>1422093</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>93,16%</t>
+          <t>97,03%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,56%</t>
+          <t>96,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,61%</t>
+          <t>97,65%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2740</t>
+          <t>2784</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2058733</t>
+          <t>1514579</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2030850</t>
+          <t>1502157</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2104372</t>
+          <t>1523727</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>92,6%</t>
+          <t>97,17%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,35%</t>
+          <t>96,37%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,66%</t>
+          <t>97,75%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>4487</t>
+          <t>5538</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>4012845</t>
+          <t>2927628</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>3958423</t>
+          <t>2913151</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4068984</t>
+          <t>2941110</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>92,88%</t>
+          <t>97,1%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>91,62%</t>
+          <t>96,62%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,18%</t>
+          <t>97,55%</t>
         </is>
       </c>
     </row>
@@ -3596,22 +3596,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1888</t>
+          <t>2844</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2097491</t>
+          <t>1456367</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2097491</t>
+          <t>1456367</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2097491</t>
+          <t>1456367</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -3631,22 +3631,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2998</t>
+          <t>2867</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2223164</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2223164</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2223164</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -3666,22 +3666,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>4886</t>
+          <t>5711</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>4320655</t>
+          <t>3015104</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>4320655</t>
+          <t>3015104</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>4320655</t>
+          <t>3015104</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el catarro en C.Valenciana (tasa de respuesta: 99,74%)</t>
+          <t>Consumo de medicamentos para el catarro en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3952,107 +3952,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7540</t>
+          <t>3207</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>1856</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11890</t>
+          <t>4868</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9860</t>
+          <t>7685</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6190</t>
+          <t>5533</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>15386</t>
+          <t>10333</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>61</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>17400</t>
+          <t>10893</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>12303</t>
+          <t>8251</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>23540</t>
+          <t>13915</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>6,82%</t>
         </is>
       </c>
     </row>
@@ -4065,107 +4065,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>484</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>208256</t>
+          <t>79335</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>203906</t>
+          <t>77674</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>211231</t>
+          <t>80686</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,51%</t>
+          <t>96,11%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,49%</t>
+          <t>94,1%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,88%</t>
+          <t>97,75%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>713</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>263821</t>
+          <t>113767</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>258295</t>
+          <t>111119</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>267491</t>
+          <t>115919</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>96,4%</t>
+          <t>93,67%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>94,38%</t>
+          <t>91,49%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>97,74%</t>
+          <t>95,44%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>472078</t>
+          <t>193101</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>465938</t>
+          <t>190079</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>477175</t>
+          <t>195743</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>96,45%</t>
+          <t>94,66%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>95,19%</t>
+          <t>93,18%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,49%</t>
+          <t>95,96%</t>
         </is>
       </c>
     </row>
@@ -4178,22 +4178,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>503</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4213,22 +4213,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>755</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4248,22 +4248,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>1258</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4295,107 +4295,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24077</t>
+          <t>9626</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17522</t>
+          <t>7374</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33341</t>
+          <t>12584</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20847</t>
+          <t>12373</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15237</t>
+          <t>9456</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>28409</t>
+          <t>15719</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>122</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>44924</t>
+          <t>21999</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>34849</t>
+          <t>18468</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>57828</t>
+          <t>26397</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>2,91%</t>
         </is>
       </c>
     </row>
@@ -4408,107 +4408,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1590</t>
+          <t>2592</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>837941</t>
+          <t>452053</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>828677</t>
+          <t>449095</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>844496</t>
+          <t>454305</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,21%</t>
+          <t>97,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,13%</t>
+          <t>97,27%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,97%</t>
+          <t>98,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1484</t>
+          <t>2436</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>847333</t>
+          <t>431984</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>839771</t>
+          <t>428638</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>852943</t>
+          <t>434901</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>97,6%</t>
+          <t>97,22%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,73%</t>
+          <t>96,46%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,24%</t>
+          <t>97,87%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>3074</t>
+          <t>5028</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>1685274</t>
+          <t>884036</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1672370</t>
+          <t>879638</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>1695349</t>
+          <t>887567</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>97,57%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>97,09%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,99%</t>
+          <t>97,96%</t>
         </is>
       </c>
     </row>
@@ -4521,22 +4521,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>2647</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4556,22 +4556,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1523</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4591,22 +4591,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>3159</t>
+          <t>5150</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4638,107 +4638,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11702</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7305</t>
+          <t>970</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18222</t>
+          <t>3557</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13450</t>
+          <t>4097</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8663</t>
+          <t>2501</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20654</t>
+          <t>6544</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>30</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>25152</t>
+          <t>6078</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>18467</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>34722</t>
+          <t>9074</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>2,25%</t>
         </is>
       </c>
     </row>
@@ -4751,107 +4751,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>896</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>366851</t>
+          <t>173580</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>360331</t>
+          <t>172004</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>371248</t>
+          <t>174591</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,91%</t>
+          <t>98,87%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,19%</t>
+          <t>97,97%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,07%</t>
+          <t>99,45%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>1180</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>403425</t>
+          <t>223897</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>396221</t>
+          <t>221450</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>408212</t>
+          <t>225493</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,77%</t>
+          <t>98,2%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>95,05%</t>
+          <t>97,13%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,92%</t>
+          <t>98,9%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1311</t>
+          <t>2076</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>770276</t>
+          <t>397477</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>760706</t>
+          <t>394481</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>776961</t>
+          <t>399335</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,84%</t>
+          <t>98,49%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,63%</t>
+          <t>97,75%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,68%</t>
+          <t>98,95%</t>
         </is>
       </c>
     </row>
@@ -4864,22 +4864,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>907</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4899,22 +4899,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>1199</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4934,22 +4934,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4981,107 +4981,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>43318</t>
+          <t>14814</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34274</t>
+          <t>11506</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>54599</t>
+          <t>18696</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>128</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>44158</t>
+          <t>24155</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>35010</t>
+          <t>19946</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>56580</t>
+          <t>28619</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>213</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>87476</t>
+          <t>38969</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>73994</t>
+          <t>33796</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>101953</t>
+          <t>45183</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>2,99%</t>
         </is>
       </c>
     </row>
@@ -5094,107 +5094,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2754</t>
+          <t>3972</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1413049</t>
+          <t>704967</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1401768</t>
+          <t>701085</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1422093</t>
+          <t>708275</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,03%</t>
+          <t>97,94%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,25%</t>
+          <t>97,4%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,65%</t>
+          <t>98,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2784</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1514579</t>
+          <t>769648</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1502157</t>
+          <t>765184</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1523727</t>
+          <t>773857</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>97,17%</t>
+          <t>96,96%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>96,39%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,75%</t>
+          <t>97,49%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>5538</t>
+          <t>8301</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>2927628</t>
+          <t>1474615</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2913151</t>
+          <t>1468401</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>2941110</t>
+          <t>1479788</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>97,1%</t>
+          <t>97,43%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>96,62%</t>
+          <t>97,01%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,55%</t>
+          <t>97,77%</t>
         </is>
       </c>
     </row>
@@ -5207,22 +5207,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2844</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1456367</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1456367</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1456367</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5242,22 +5242,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2867</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5277,22 +5277,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>5711</t>
+          <t>8514</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>3015104</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>3015104</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>3015104</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
